--- a/data/dane_finansowe.xlsx
+++ b/data/dane_finansowe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/przemekbiernat/Desktop/Docker/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/przemekbiernat/Desktop/Docker/new_repo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E17CFF-F4FD-FC46-8932-AF80A6E21EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BAFC50-08B4-A947-85A2-776F5C8C1E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4D0C5E2C-C57E-9141-BB37-3F25EF873003}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BC$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$G$2:$I$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -243,9 +243,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0_);\(#,##0\);\-"/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -281,14 +278,15 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,14 +365,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -397,24 +389,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -437,14 +417,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1074,9 +1051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B011D845-C0A1-6144-B026-372543A373DB}">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF28" sqref="AF28"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1069,7 @@
     <col min="9" max="9" width="22" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.83203125" style="10" bestFit="1" customWidth="1"/>
@@ -1311,7 +1288,7 @@
       <c r="B2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>45897</v>
       </c>
       <c r="D2" s="9">
@@ -1324,7 +1301,13 @@
         <v>84798000</v>
       </c>
       <c r="G2" s="10">
-        <v>35243000</v>
+        <v>26354000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>58444000</v>
+      </c>
+      <c r="I2" s="10">
+        <v>23201000</v>
       </c>
       <c r="J2" s="10">
         <v>41628000</v>
@@ -1332,6 +1315,9 @@
       <c r="K2" s="10">
         <v>6385000</v>
       </c>
+      <c r="L2" s="10">
+        <v>35243000</v>
+      </c>
       <c r="M2" s="10">
         <v>74000</v>
       </c>
@@ -1339,12 +1325,15 @@
         <v>913000</v>
       </c>
       <c r="O2" s="10">
-        <v>34404000</v>
+        <v>58444000</v>
       </c>
       <c r="P2" s="10">
         <v>3380000</v>
       </c>
       <c r="Q2" s="10">
+        <v>31024000</v>
+      </c>
+      <c r="R2" s="10">
         <v>31024000</v>
       </c>
       <c r="S2" s="11">
@@ -1442,7 +1431,7 @@
       <c r="B3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>45835</v>
       </c>
       <c r="D3" s="9">
@@ -1455,7 +1444,13 @@
         <v>89009000</v>
       </c>
       <c r="G3" s="10">
-        <v>40796000</v>
+        <v>19611000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>69398000</v>
+      </c>
+      <c r="I3" s="10">
+        <v>28602000</v>
       </c>
       <c r="J3" s="10">
         <v>47288092</v>
@@ -1463,7 +1458,22 @@
       <c r="K3" s="10">
         <v>6492000</v>
       </c>
+      <c r="L3" s="10">
+        <v>40796000</v>
+      </c>
+      <c r="M3" s="10">
+        <v>-424000</v>
+      </c>
+      <c r="N3" s="10">
+        <v>-53000</v>
+      </c>
+      <c r="O3" s="10">
+        <v>69398000</v>
+      </c>
       <c r="Q3" s="10">
+        <v>36824000</v>
+      </c>
+      <c r="R3" s="10">
         <v>36824000</v>
       </c>
       <c r="S3" s="11">
@@ -1561,7 +1571,7 @@
       <c r="B4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <v>45715</v>
       </c>
       <c r="D4" s="9">
@@ -1574,7 +1584,13 @@
         <v>88917000</v>
       </c>
       <c r="G4" s="10">
-        <v>43582000</v>
+        <v>17870000</v>
+      </c>
+      <c r="H4" s="10">
+        <v>71047000</v>
+      </c>
+      <c r="I4" s="10">
+        <v>27465000</v>
       </c>
       <c r="J4" s="10">
         <v>49770000</v>
@@ -1582,7 +1598,22 @@
       <c r="K4" s="10">
         <v>6188000</v>
       </c>
+      <c r="L4" s="10">
+        <v>43582000</v>
+      </c>
+      <c r="M4" s="10">
+        <v>824000</v>
+      </c>
+      <c r="N4" s="10">
+        <v>-78000</v>
+      </c>
+      <c r="O4" s="10">
+        <v>71047000</v>
+      </c>
       <c r="Q4" s="10">
+        <v>41267000</v>
+      </c>
+      <c r="R4" s="10">
         <v>41267000</v>
       </c>
       <c r="S4" s="11">
@@ -1680,7 +1711,7 @@
       <c r="B5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>45623</v>
       </c>
       <c r="D5" s="9">
@@ -1693,7 +1724,13 @@
         <v>89412000</v>
       </c>
       <c r="G5" s="10">
-        <v>46056000</v>
+        <v>18488000</v>
+      </c>
+      <c r="H5" s="10">
+        <v>70924000</v>
+      </c>
+      <c r="I5" s="10">
+        <v>24868000</v>
       </c>
       <c r="J5" s="10">
         <v>51932000</v>
@@ -1701,7 +1738,22 @@
       <c r="K5" s="10">
         <v>5877000</v>
       </c>
+      <c r="L5" s="10">
+        <v>46056000</v>
+      </c>
+      <c r="M5" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N5" s="10">
+        <v>68000</v>
+      </c>
+      <c r="O5" s="10">
+        <v>70924000</v>
+      </c>
       <c r="Q5" s="10">
+        <v>42601000</v>
+      </c>
+      <c r="R5" s="10">
         <v>42601000</v>
       </c>
       <c r="S5" s="11">
@@ -1799,7 +1851,7 @@
       <c r="B6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>45533</v>
       </c>
       <c r="D6" s="9">
@@ -1812,7 +1864,13 @@
         <v>86840000</v>
       </c>
       <c r="G6" s="10">
-        <v>46933000</v>
+        <v>15901000</v>
+      </c>
+      <c r="H6" s="10">
+        <v>70939000</v>
+      </c>
+      <c r="I6" s="10">
+        <v>24006000</v>
       </c>
       <c r="J6" s="10">
         <v>52617000</v>
@@ -1820,10 +1878,25 @@
       <c r="K6" s="10">
         <v>5684000</v>
       </c>
+      <c r="L6" s="10">
+        <v>46933000</v>
+      </c>
+      <c r="M6" s="10">
+        <v>4000</v>
+      </c>
+      <c r="N6" s="10">
+        <v>98000</v>
+      </c>
       <c r="O6" s="10">
-        <v>46839000</v>
+        <v>70939000</v>
+      </c>
+      <c r="P6" s="10">
+        <v>3113000</v>
       </c>
       <c r="Q6" s="10">
+        <v>43726000</v>
+      </c>
+      <c r="R6" s="10">
         <v>43726000</v>
       </c>
       <c r="S6" s="11">
@@ -1921,7 +1994,7 @@
       <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>45470</v>
       </c>
       <c r="D7" s="9">
@@ -1934,7 +2007,13 @@
         <v>83309000</v>
       </c>
       <c r="G7" s="10">
-        <v>40908000</v>
+        <v>16344000</v>
+      </c>
+      <c r="H7" s="10">
+        <v>66965000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>26057000</v>
       </c>
       <c r="J7" s="10">
         <v>46013000</v>
@@ -1942,7 +2021,22 @@
       <c r="K7" s="10">
         <v>5105000</v>
       </c>
+      <c r="L7" s="10">
+        <v>40908000</v>
+      </c>
+      <c r="M7" s="10">
+        <v>-4000</v>
+      </c>
+      <c r="N7" s="10">
+        <v>17000</v>
+      </c>
+      <c r="O7" s="10">
+        <v>66965000</v>
+      </c>
       <c r="Q7" s="10">
+        <v>38049000</v>
+      </c>
+      <c r="R7" s="10">
         <v>38049000</v>
       </c>
       <c r="S7" s="11">
@@ -2037,7 +2131,7 @@
       <c r="B8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>45350</v>
       </c>
       <c r="D8" s="9">
@@ -2050,7 +2144,13 @@
         <v>89368000</v>
       </c>
       <c r="G8" s="10">
-        <v>47455000</v>
+        <v>18488000</v>
+      </c>
+      <c r="H8" s="10">
+        <v>70880000</v>
+      </c>
+      <c r="I8" s="10">
+        <v>23425000</v>
       </c>
       <c r="J8" s="10">
         <v>52467000</v>
@@ -2058,7 +2158,22 @@
       <c r="K8" s="10">
         <v>5012000</v>
       </c>
+      <c r="L8" s="10">
+        <v>47455000</v>
+      </c>
+      <c r="M8" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="10">
+        <v>84000</v>
+      </c>
+      <c r="O8" s="10">
+        <v>70880000</v>
+      </c>
       <c r="Q8" s="10">
+        <v>43884000</v>
+      </c>
+      <c r="R8" s="10">
         <v>43884000</v>
       </c>
       <c r="S8" s="11">
@@ -2153,7 +2268,7 @@
       <c r="B9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>45274</v>
       </c>
       <c r="D9" s="9">
@@ -2166,7 +2281,13 @@
         <v>79196000</v>
       </c>
       <c r="G9" s="10">
-        <v>42271000</v>
+        <v>13609000</v>
+      </c>
+      <c r="H9" s="10">
+        <v>65587000</v>
+      </c>
+      <c r="I9" s="10">
+        <v>23316000</v>
       </c>
       <c r="J9" s="10">
         <v>46220000</v>
@@ -2174,7 +2295,22 @@
       <c r="K9" s="10">
         <v>4751000</v>
       </c>
+      <c r="L9" s="10">
+        <v>42271000</v>
+      </c>
+      <c r="M9" s="10">
+        <v>119000</v>
+      </c>
+      <c r="N9" s="10">
+        <v>87000</v>
+      </c>
+      <c r="O9" s="10">
+        <v>65587000</v>
+      </c>
       <c r="Q9" s="10">
+        <v>39453000</v>
+      </c>
+      <c r="R9" s="10">
         <v>39453000</v>
       </c>
       <c r="S9" s="11">
@@ -2269,7 +2405,7 @@
       <c r="B10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>45163</v>
       </c>
       <c r="D10" s="9">
@@ -2282,12 +2418,33 @@
         <v>83476000</v>
       </c>
       <c r="G10" s="10">
-        <v>48387000</v>
+        <v>15165000</v>
+      </c>
+      <c r="H10" s="10">
+        <v>68311000</v>
+      </c>
+      <c r="I10" s="10">
+        <v>19924000</v>
       </c>
       <c r="K10" s="10">
         <v>4501000</v>
       </c>
+      <c r="L10" s="10">
+        <v>48387000</v>
+      </c>
+      <c r="M10" s="10">
+        <v>3000</v>
+      </c>
+      <c r="N10" s="10">
+        <v>77000</v>
+      </c>
+      <c r="O10" s="10">
+        <v>68311000</v>
+      </c>
       <c r="Q10" s="10">
+        <v>45167000</v>
+      </c>
+      <c r="R10" s="10">
         <v>45167000</v>
       </c>
       <c r="S10" s="11">
@@ -2382,6 +2539,9 @@
       <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C11" s="20">
+        <v>45099</v>
+      </c>
       <c r="D11" s="9">
         <v>2022</v>
       </c>
@@ -2392,12 +2552,33 @@
         <v>88530000</v>
       </c>
       <c r="G11" s="10">
-        <v>53301000</v>
+        <v>14365000</v>
+      </c>
+      <c r="H11" s="10">
+        <v>74165000</v>
+      </c>
+      <c r="I11" s="10">
+        <v>20864000</v>
       </c>
       <c r="K11" s="10">
         <v>3971000</v>
       </c>
+      <c r="L11" s="10">
+        <v>53301000</v>
+      </c>
+      <c r="M11" s="10">
+        <v>2000</v>
+      </c>
+      <c r="N11" s="10">
+        <v>214000</v>
+      </c>
+      <c r="O11" s="10">
+        <v>74165000</v>
+      </c>
       <c r="Q11" s="10">
+        <v>49607000</v>
+      </c>
+      <c r="R11" s="10">
         <v>49607000</v>
       </c>
       <c r="S11" s="11">
@@ -2492,6 +2673,9 @@
       <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C12" s="20">
+        <v>44980</v>
+      </c>
       <c r="D12" s="9">
         <v>2022</v>
       </c>
@@ -2502,12 +2686,33 @@
         <v>85900000</v>
       </c>
       <c r="G12" s="10">
-        <v>50930000</v>
+        <v>12530000</v>
+      </c>
+      <c r="H12" s="10">
+        <v>73370000</v>
+      </c>
+      <c r="I12" s="10">
+        <v>22440000</v>
       </c>
       <c r="K12" s="10">
         <v>3699000</v>
       </c>
+      <c r="L12" s="10">
+        <v>50930000</v>
+      </c>
+      <c r="M12" s="10">
+        <v>3000</v>
+      </c>
+      <c r="N12" s="10">
+        <v>121000</v>
+      </c>
+      <c r="O12" s="10">
+        <v>73370000</v>
+      </c>
       <c r="Q12" s="10">
+        <v>47184000</v>
+      </c>
+      <c r="R12" s="10">
         <v>47184000</v>
       </c>
       <c r="S12" s="11">
@@ -2602,6 +2807,9 @@
       <c r="B13" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C13" s="20">
+        <v>44887</v>
+      </c>
       <c r="D13" s="9">
         <v>2022</v>
       </c>
@@ -2612,12 +2820,33 @@
         <v>74512000</v>
       </c>
       <c r="G13" s="10">
-        <v>42552000</v>
+        <v>9436000</v>
+      </c>
+      <c r="H13" s="10">
+        <v>65076000</v>
+      </c>
+      <c r="I13" s="10">
+        <v>22524000</v>
       </c>
       <c r="K13" s="10">
         <v>3480000</v>
       </c>
+      <c r="L13" s="10">
+        <v>42552000</v>
+      </c>
+      <c r="M13" s="10">
+        <v>-83000</v>
+      </c>
+      <c r="N13" s="10">
+        <v>33000</v>
+      </c>
+      <c r="O13" s="10">
+        <v>65076000</v>
+      </c>
       <c r="Q13" s="10">
+        <v>39674000</v>
+      </c>
+      <c r="R13" s="10">
         <v>39674000</v>
       </c>
       <c r="S13" s="11">
@@ -2712,6 +2941,9 @@
       <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C14" s="20">
+        <v>44797</v>
+      </c>
       <c r="D14" s="9">
         <v>2022</v>
       </c>
@@ -2722,12 +2954,33 @@
         <v>66780000</v>
       </c>
       <c r="G14" s="10">
-        <v>38705000</v>
+        <v>10016000</v>
+      </c>
+      <c r="H14" s="10">
+        <v>56764000</v>
+      </c>
+      <c r="I14" s="10">
+        <v>18059000</v>
       </c>
       <c r="K14" s="10">
         <v>3328000</v>
       </c>
+      <c r="L14" s="10">
+        <v>38705000</v>
+      </c>
+      <c r="M14" s="10">
+        <v>96000</v>
+      </c>
+      <c r="N14" s="10">
+        <v>63000</v>
+      </c>
+      <c r="O14" s="10">
+        <v>56764000</v>
+      </c>
       <c r="Q14" s="10">
+        <v>35892000</v>
+      </c>
+      <c r="R14" s="10">
         <v>35892000</v>
       </c>
       <c r="S14" s="11">
@@ -2822,6 +3075,9 @@
       <c r="B15" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C15" s="20">
+        <v>44742</v>
+      </c>
       <c r="D15" s="9">
         <v>2021</v>
       </c>
@@ -2832,10 +3088,34 @@
         <v>61817000</v>
       </c>
       <c r="G15" s="10">
-        <v>32247000</v>
+        <v>10386000</v>
+      </c>
+      <c r="H15" s="10">
+        <v>51431000</v>
+      </c>
+      <c r="I15" s="10">
+        <v>19184000</v>
       </c>
       <c r="K15" s="10">
         <v>3171000</v>
+      </c>
+      <c r="L15" s="10">
+        <v>32247000</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="10">
+        <v>-369000</v>
+      </c>
+      <c r="O15" s="10">
+        <v>51431000</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>30306000</v>
+      </c>
+      <c r="R15" s="10">
+        <v>30306000</v>
       </c>
       <c r="S15" s="11">
         <v>95521000</v>
@@ -2926,6 +3206,9 @@
       <c r="B16" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C16" s="20">
+        <v>44617</v>
+      </c>
       <c r="D16" s="9">
         <v>2021</v>
       </c>
@@ -2936,10 +3219,34 @@
         <v>56130000</v>
       </c>
       <c r="G16" s="10">
-        <v>31975000</v>
+        <v>8648000</v>
+      </c>
+      <c r="H16" s="10">
+        <v>47482000</v>
+      </c>
+      <c r="I16" s="10">
+        <v>15507000</v>
       </c>
       <c r="K16" s="10">
         <v>3064000</v>
+      </c>
+      <c r="L16" s="10">
+        <v>31975000</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>477000</v>
+      </c>
+      <c r="O16" s="10">
+        <v>47482000</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>29423000</v>
+      </c>
+      <c r="R16" s="10">
+        <v>29423000</v>
       </c>
       <c r="S16" s="11">
         <v>99335000</v>
@@ -3012,6 +3319,9 @@
       <c r="B17" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C17" s="20">
+        <v>44524</v>
+      </c>
       <c r="D17" s="9">
         <v>2021</v>
       </c>
@@ -3022,10 +3332,34 @@
         <v>55659000</v>
       </c>
       <c r="G17" s="10">
-        <v>35771000</v>
+        <v>5188000</v>
+      </c>
+      <c r="H17" s="10">
+        <v>50471000</v>
+      </c>
+      <c r="I17" s="10">
+        <v>14700000</v>
       </c>
       <c r="K17" s="10">
         <v>2792000</v>
+      </c>
+      <c r="L17" s="10">
+        <v>35771000</v>
+      </c>
+      <c r="M17" s="10">
+        <v>-393000</v>
+      </c>
+      <c r="N17" s="10">
+        <v>9000</v>
+      </c>
+      <c r="O17" s="10">
+        <v>50471000</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>32682000</v>
+      </c>
+      <c r="R17" s="10">
+        <v>32682000</v>
       </c>
       <c r="S17" s="11">
         <v>80791000</v>
@@ -3098,6 +3432,9 @@
       <c r="B18" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C18" s="20">
+        <v>44439</v>
+      </c>
       <c r="D18" s="9">
         <v>2021</v>
       </c>
@@ -3108,10 +3445,34 @@
         <v>48909000</v>
       </c>
       <c r="G18" s="10">
-        <v>28073000</v>
+        <v>7906000</v>
+      </c>
+      <c r="H18" s="10">
+        <v>41003000</v>
+      </c>
+      <c r="I18" s="10">
+        <v>12930000</v>
       </c>
       <c r="K18" s="10">
         <v>2894000</v>
+      </c>
+      <c r="L18" s="10">
+        <v>28073000</v>
+      </c>
+      <c r="M18" s="10">
+        <v>393000</v>
+      </c>
+      <c r="N18" s="10">
+        <v>8000</v>
+      </c>
+      <c r="O18" s="10">
+        <v>41003000</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>26612000</v>
+      </c>
+      <c r="R18" s="10">
+        <v>26612000</v>
       </c>
       <c r="S18" s="11">
         <v>114485000</v>
@@ -3184,6 +3545,9 @@
       <c r="B19" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C19" s="20">
+        <v>44349</v>
+      </c>
       <c r="D19" s="9">
         <v>2020</v>
       </c>
@@ -3194,10 +3558,34 @@
         <v>48052000</v>
       </c>
       <c r="G19" s="10">
-        <v>29531000</v>
+        <v>6259000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>41793000</v>
+      </c>
+      <c r="I19" s="10">
+        <v>12262000</v>
       </c>
       <c r="K19" s="10">
         <v>2667000</v>
+      </c>
+      <c r="L19" s="10">
+        <v>29531000</v>
+      </c>
+      <c r="M19" s="10">
+        <v>-93000</v>
+      </c>
+      <c r="N19" s="10">
+        <v>6000</v>
+      </c>
+      <c r="O19" s="10">
+        <v>41793000</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>27515000</v>
+      </c>
+      <c r="R19" s="10">
+        <v>27515000</v>
       </c>
       <c r="S19" s="11">
         <v>85150000</v>
@@ -3270,6 +3658,9 @@
       <c r="B20" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C20" s="20">
+        <v>44250</v>
+      </c>
       <c r="D20" s="9">
         <v>2020</v>
       </c>
@@ -3280,10 +3671,34 @@
         <v>46220000</v>
       </c>
       <c r="G20" s="10">
-        <v>27893000</v>
+        <v>7065000</v>
+      </c>
+      <c r="H20" s="10">
+        <v>39155000</v>
+      </c>
+      <c r="I20" s="10">
+        <v>11262000</v>
       </c>
       <c r="K20" s="10">
         <v>2501000</v>
+      </c>
+      <c r="L20" s="10">
+        <v>27893000</v>
+      </c>
+      <c r="M20" s="10">
+        <v>94000</v>
+      </c>
+      <c r="N20" s="10">
+        <v>-31000</v>
+      </c>
+      <c r="O20" s="10">
+        <v>39155000</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>26206000</v>
+      </c>
+      <c r="R20" s="10">
+        <v>26206000</v>
       </c>
       <c r="S20" s="11">
         <v>77155000</v>
@@ -3356,6 +3771,9 @@
       <c r="B21" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C21" s="20">
+        <v>44159</v>
+      </c>
       <c r="D21" s="9">
         <v>2020</v>
       </c>
@@ -3366,10 +3784,34 @@
         <v>43110000</v>
       </c>
       <c r="G21" s="10">
-        <v>23866000</v>
+        <v>8980000</v>
+      </c>
+      <c r="H21" s="10">
+        <v>34130000</v>
+      </c>
+      <c r="I21" s="10">
+        <v>10264000</v>
       </c>
       <c r="K21" s="10">
         <v>2389000</v>
+      </c>
+      <c r="L21" s="10">
+        <v>23866000</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1000</v>
+      </c>
+      <c r="N21" s="10">
+        <v>-516000</v>
+      </c>
+      <c r="O21" s="10">
+        <v>34130000</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>25637000</v>
+      </c>
+      <c r="R21" s="10">
+        <v>25637000</v>
       </c>
       <c r="S21" s="11">
         <v>50548000</v>
@@ -3442,6 +3884,9 @@
       <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C22" s="20">
+        <v>44068</v>
+      </c>
       <c r="D22" s="9">
         <v>2020</v>
       </c>
@@ -3452,10 +3897,34 @@
         <v>41628000</v>
       </c>
       <c r="G22" s="10">
-        <v>25823000</v>
+        <v>5603000</v>
+      </c>
+      <c r="H22" s="10">
+        <v>36025000</v>
+      </c>
+      <c r="I22" s="10">
+        <v>10202000</v>
       </c>
       <c r="K22" s="10">
         <v>2225000</v>
+      </c>
+      <c r="L22" s="10">
+        <v>25823000</v>
+      </c>
+      <c r="M22" s="10">
+        <v>3000</v>
+      </c>
+      <c r="N22" s="10">
+        <v>555000</v>
+      </c>
+      <c r="O22" s="10">
+        <v>36025000</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>20802000</v>
+      </c>
+      <c r="R22" s="10">
+        <v>20802000</v>
       </c>
       <c r="S22" s="11">
         <v>74528000</v>
@@ -3528,6 +3997,9 @@
       <c r="B23" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C23" s="20">
+        <v>43985</v>
+      </c>
       <c r="D23" s="9">
         <v>2019</v>
       </c>
@@ -3538,10 +4010,34 @@
         <v>36014000</v>
       </c>
       <c r="G23" s="10">
-        <v>23655000</v>
+        <v>3491000</v>
+      </c>
+      <c r="H23" s="10">
+        <v>32523000</v>
+      </c>
+      <c r="I23" s="10">
+        <v>8868000</v>
       </c>
       <c r="K23" s="10">
         <v>2398000</v>
+      </c>
+      <c r="L23" s="10">
+        <v>23655000</v>
+      </c>
+      <c r="M23" s="10">
+        <v>10000</v>
+      </c>
+      <c r="N23" s="10">
+        <v>105000</v>
+      </c>
+      <c r="O23" s="10">
+        <v>32523000</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>29222000</v>
+      </c>
+      <c r="R23" s="10">
+        <v>29222000</v>
       </c>
       <c r="S23" s="11">
         <v>54557000</v>
@@ -3614,6 +4110,9 @@
       <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C24" s="20">
+        <v>43881</v>
+      </c>
       <c r="D24" s="9">
         <v>2019</v>
       </c>
@@ -3624,10 +4123,34 @@
         <v>32356000</v>
       </c>
       <c r="G24" s="10">
-        <v>19698000</v>
+        <v>5015000</v>
+      </c>
+      <c r="H24" s="10">
+        <v>27341000</v>
+      </c>
+      <c r="I24" s="10">
+        <v>7643000</v>
       </c>
       <c r="K24" s="10">
         <v>1457000</v>
+      </c>
+      <c r="L24" s="10">
+        <v>19698000</v>
+      </c>
+      <c r="M24" s="10">
+        <v>18000</v>
+      </c>
+      <c r="N24" s="10">
+        <v>6000</v>
+      </c>
+      <c r="O24" s="10">
+        <v>27341000</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>15815000</v>
+      </c>
+      <c r="R24" s="10">
+        <v>15815000</v>
       </c>
       <c r="S24" s="11">
         <v>46932000</v>
@@ -3700,6 +4223,9 @@
       <c r="B25" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C25" s="20">
+        <v>43796</v>
+      </c>
       <c r="D25" s="9">
         <v>2019</v>
       </c>
@@ -3710,10 +4236,34 @@
         <v>32320000</v>
       </c>
       <c r="G25" s="10">
-        <v>20370000</v>
+        <v>4226000</v>
+      </c>
+      <c r="H25" s="10">
+        <v>28094000</v>
+      </c>
+      <c r="I25" s="10">
+        <v>7724000</v>
       </c>
       <c r="K25" s="10">
         <v>1367000</v>
+      </c>
+      <c r="L25" s="10">
+        <v>20370000</v>
+      </c>
+      <c r="M25" s="10">
+        <v>15000</v>
+      </c>
+      <c r="N25" s="10">
+        <v>3000</v>
+      </c>
+      <c r="O25" s="10">
+        <v>28094000</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>16368000</v>
+      </c>
+      <c r="R25" s="10">
+        <v>16368000</v>
       </c>
       <c r="S25" s="11">
         <v>32697000</v>
@@ -3786,6 +4336,9 @@
       <c r="B26" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C26" s="20">
+        <v>43699</v>
+      </c>
       <c r="D26" s="9">
         <v>2019</v>
       </c>
@@ -3796,10 +4349,34 @@
         <v>30177000</v>
       </c>
       <c r="G26" s="10">
-        <v>18199000</v>
+        <v>4728000</v>
+      </c>
+      <c r="H26" s="10">
+        <v>25449000</v>
+      </c>
+      <c r="I26" s="10">
+        <v>7250000</v>
       </c>
       <c r="K26" s="10">
         <v>1268000</v>
+      </c>
+      <c r="L26" s="10">
+        <v>18199000</v>
+      </c>
+      <c r="M26" s="10">
+        <v>26000</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <v>25449000</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>14714000</v>
+      </c>
+      <c r="R26" s="10">
+        <v>14714000</v>
       </c>
       <c r="S26" s="11">
         <v>55157000</v>
@@ -3872,6 +4449,9 @@
       <c r="B27" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C27" s="20">
+        <v>43628</v>
+      </c>
       <c r="D27" s="9">
         <v>2018</v>
       </c>
@@ -3882,10 +4462,34 @@
         <v>29424000</v>
       </c>
       <c r="G27" s="10">
-        <v>18768000</v>
+        <v>4563000</v>
+      </c>
+      <c r="H27" s="10">
+        <v>24861000</v>
+      </c>
+      <c r="I27" s="10">
+        <v>6093000</v>
       </c>
       <c r="K27" s="10">
         <v>1153000</v>
+      </c>
+      <c r="L27" s="10">
+        <v>18768000</v>
+      </c>
+      <c r="M27" s="10">
+        <v>85000</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <v>24861000</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>15178000</v>
+      </c>
+      <c r="R27" s="10">
+        <v>15178000</v>
       </c>
       <c r="S27" s="11">
         <v>42952000</v>
@@ -3958,6 +4562,9 @@
       <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C28" s="20">
+        <v>43522</v>
+      </c>
       <c r="D28" s="9">
         <v>2018</v>
       </c>
@@ -3968,10 +4575,34 @@
         <v>27779000</v>
       </c>
       <c r="G28" s="10">
-        <v>16966000</v>
+        <v>4950000</v>
+      </c>
+      <c r="H28" s="10">
+        <v>22829000</v>
+      </c>
+      <c r="I28" s="10">
+        <v>5863000</v>
       </c>
       <c r="K28" s="10">
         <v>963000</v>
+      </c>
+      <c r="L28" s="10">
+        <v>16966000</v>
+      </c>
+      <c r="M28" s="10">
+        <v>40000</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>22829000</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>13740000</v>
+      </c>
+      <c r="R28" s="10">
+        <v>13740000</v>
       </c>
       <c r="S28" s="11">
         <v>42940000</v>
@@ -4044,6 +4675,9 @@
       <c r="B29" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C29" s="20">
+        <v>43431</v>
+      </c>
       <c r="D29" s="9">
         <v>2018</v>
       </c>
@@ -4054,10 +4688,34 @@
         <v>26581000</v>
       </c>
       <c r="G29" s="10">
-        <v>17426000</v>
+        <v>4419000</v>
+      </c>
+      <c r="H29" s="10">
+        <v>22162000</v>
+      </c>
+      <c r="I29" s="10">
+        <v>4736000</v>
       </c>
       <c r="K29" s="10">
         <v>873000</v>
+      </c>
+      <c r="L29" s="10">
+        <v>17426000</v>
+      </c>
+      <c r="M29" s="10">
+        <v>36000</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <v>22162000</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>14102000</v>
+      </c>
+      <c r="R29" s="10">
+        <v>14102000</v>
       </c>
       <c r="S29" s="11">
         <v>28316000</v>
@@ -4130,6 +4788,9 @@
       <c r="B30" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C30" s="20">
+        <v>43705</v>
+      </c>
       <c r="D30" s="9">
         <v>2018</v>
       </c>
@@ -4140,10 +4801,34 @@
         <v>25515000</v>
       </c>
       <c r="G30" s="10">
-        <v>17616000</v>
+        <v>4007000</v>
+      </c>
+      <c r="H30" s="10">
+        <v>21508000</v>
+      </c>
+      <c r="I30" s="10">
+        <v>3892000</v>
       </c>
       <c r="K30" s="10">
         <v>761000</v>
+      </c>
+      <c r="L30" s="10">
+        <v>17616000</v>
+      </c>
+      <c r="M30" s="10">
+        <v>49000</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <v>21508000</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>14226000</v>
+      </c>
+      <c r="R30" s="10">
+        <v>14226000</v>
       </c>
       <c r="S30" s="11">
         <v>51500000</v>
@@ -4216,6 +4901,9 @@
       <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C31" s="20">
+        <v>43629</v>
+      </c>
       <c r="D31" s="9">
         <v>2017</v>
       </c>
@@ -4226,10 +4914,34 @@
         <v>22982000</v>
       </c>
       <c r="G31" s="10">
-        <v>15982000</v>
+        <v>3499000</v>
+      </c>
+      <c r="H31" s="10">
+        <v>19483000</v>
+      </c>
+      <c r="I31" s="10">
+        <v>3501000</v>
       </c>
       <c r="K31" s="10">
         <v>100000</v>
+      </c>
+      <c r="L31" s="10">
+        <v>15982000</v>
+      </c>
+      <c r="M31" s="10">
+        <v>37000</v>
+      </c>
+      <c r="N31" s="10">
+        <v>139000</v>
+      </c>
+      <c r="O31" s="10">
+        <v>19483000</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>12802000</v>
+      </c>
+      <c r="R31" s="10">
+        <v>12802000</v>
       </c>
       <c r="S31" s="11">
         <v>37205000</v>
@@ -4302,6 +5014,9 @@
       <c r="B32" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C32" s="20">
+        <v>43524</v>
+      </c>
       <c r="D32" s="9">
         <v>2017</v>
       </c>
@@ -4312,10 +5027,34 @@
         <v>22830000</v>
       </c>
       <c r="G32" s="10">
-        <v>15404000</v>
+        <v>3737000</v>
+      </c>
+      <c r="H32" s="10">
+        <v>19093000</v>
+      </c>
+      <c r="I32" s="10">
+        <v>3689000</v>
       </c>
       <c r="K32" s="10">
         <v>637000</v>
+      </c>
+      <c r="L32" s="10">
+        <v>15404000</v>
+      </c>
+      <c r="M32" s="10">
+        <v>35000</v>
+      </c>
+      <c r="N32" s="10">
+        <v>19000</v>
+      </c>
+      <c r="O32" s="10">
+        <v>19093000</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>12407000</v>
+      </c>
+      <c r="R32" s="10">
+        <v>12407000</v>
       </c>
       <c r="S32" s="11">
         <v>37364000</v>
@@ -4388,6 +5127,9 @@
       <c r="B33" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C33" s="20">
+        <v>43431</v>
+      </c>
       <c r="D33" s="9">
         <v>2017</v>
       </c>
@@ -4398,10 +5140,34 @@
         <v>22029000</v>
       </c>
       <c r="G33" s="10">
-        <v>16235000</v>
+        <v>2557000</v>
+      </c>
+      <c r="H33" s="10">
+        <v>19472000</v>
+      </c>
+      <c r="I33" s="10">
+        <v>3237000</v>
       </c>
       <c r="K33" s="10">
         <v>591000</v>
+      </c>
+      <c r="L33" s="10">
+        <v>16235000</v>
+      </c>
+      <c r="M33" s="10">
+        <v>33000</v>
+      </c>
+      <c r="N33" s="10">
+        <v>1356000</v>
+      </c>
+      <c r="O33" s="10">
+        <v>19472000</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>12022000</v>
+      </c>
+      <c r="R33" s="10">
+        <v>12022000</v>
       </c>
       <c r="S33" s="11">
         <v>24962000</v>
@@ -4474,6 +5240,9 @@
       <c r="B34" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C34" s="20">
+        <v>43340</v>
+      </c>
       <c r="D34" s="9">
         <v>2017</v>
       </c>
@@ -4484,10 +5253,34 @@
         <v>21585000</v>
       </c>
       <c r="G34" s="10">
-        <v>13741000</v>
+        <v>4557000</v>
+      </c>
+      <c r="H34" s="10">
+        <v>17028000</v>
+      </c>
+      <c r="I34" s="10">
+        <v>3287000</v>
       </c>
       <c r="K34" s="10">
         <v>550000</v>
+      </c>
+      <c r="L34" s="10">
+        <v>13741000</v>
+      </c>
+      <c r="M34" s="10">
+        <v>27000</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10">
+        <v>17028000</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>11074000</v>
+      </c>
+      <c r="R34" s="10">
+        <v>11074000</v>
       </c>
       <c r="S34" s="11">
         <v>49436000</v>
@@ -4560,6 +5353,9 @@
       <c r="B35" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C35" s="20">
+        <v>43264</v>
+      </c>
       <c r="D35" s="9">
         <v>2016</v>
       </c>
@@ -4570,10 +5366,34 @@
         <v>21533000</v>
       </c>
       <c r="G35" s="10">
-        <v>14974000</v>
+        <v>3516000</v>
+      </c>
+      <c r="H35" s="10">
+        <v>18017000</v>
+      </c>
+      <c r="I35" s="10">
+        <v>3043000</v>
       </c>
       <c r="K35" s="10">
         <v>500000</v>
+      </c>
+      <c r="L35" s="10">
+        <v>14974000</v>
+      </c>
+      <c r="M35" s="10">
+        <v>15000</v>
+      </c>
+      <c r="N35" s="10">
+        <v>0</v>
+      </c>
+      <c r="O35" s="10">
+        <v>18017000</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>12037000</v>
+      </c>
+      <c r="R35" s="10">
+        <v>12037000</v>
       </c>
       <c r="S35" s="11">
         <v>39471000</v>
@@ -4646,6 +5466,9 @@
       <c r="B36" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C36" s="20">
+        <v>43159</v>
+      </c>
       <c r="D36" s="9">
         <v>2016</v>
       </c>
@@ -4656,10 +5479,34 @@
         <v>20173000</v>
       </c>
       <c r="G36" s="10">
-        <v>14969000</v>
+        <v>2425000</v>
+      </c>
+      <c r="H36" s="10">
+        <v>17748000</v>
+      </c>
+      <c r="I36" s="10">
+        <v>2779000</v>
       </c>
       <c r="K36" s="10">
         <v>441000</v>
+      </c>
+      <c r="L36" s="10">
+        <v>14969000</v>
+      </c>
+      <c r="M36" s="10">
+        <v>9000</v>
+      </c>
+      <c r="N36" s="10">
+        <v>5000</v>
+      </c>
+      <c r="O36" s="10">
+        <v>17748000</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>12049000</v>
+      </c>
+      <c r="R36" s="10">
+        <v>12049000</v>
       </c>
       <c r="S36" s="11">
         <v>28251000</v>
@@ -4732,6 +5579,9 @@
       <c r="B37" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C37" s="20">
+        <v>43068</v>
+      </c>
       <c r="D37" s="9">
         <v>2016</v>
       </c>
@@ -4742,10 +5592,34 @@
         <v>17966000</v>
       </c>
       <c r="G37" s="10">
-        <v>12165000</v>
+        <v>3049000</v>
+      </c>
+      <c r="H37" s="10">
+        <v>14917000</v>
+      </c>
+      <c r="I37" s="10">
+        <v>2752000</v>
       </c>
       <c r="K37" s="10">
         <v>398000</v>
+      </c>
+      <c r="L37" s="10">
+        <v>12165000</v>
+      </c>
+      <c r="M37" s="10">
+        <v>20000</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0</v>
+      </c>
+      <c r="O37" s="10">
+        <v>14917000</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>9742000</v>
+      </c>
+      <c r="R37" s="10">
+        <v>9742000</v>
       </c>
       <c r="S37" s="11">
         <v>16588000</v>
@@ -4818,6 +5692,9 @@
       <c r="B38" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C38" s="20">
+        <v>42977</v>
+      </c>
       <c r="D38" s="9">
         <v>2016</v>
       </c>
@@ -4828,10 +5705,34 @@
         <v>16582000</v>
       </c>
       <c r="G38" s="10">
-        <v>11241000</v>
+        <v>2759000</v>
+      </c>
+      <c r="H38" s="10">
+        <v>13823000</v>
+      </c>
+      <c r="I38" s="10">
+        <v>2582000</v>
       </c>
       <c r="K38" s="10">
         <v>354000</v>
+      </c>
+      <c r="L38" s="10">
+        <v>11241000</v>
+      </c>
+      <c r="M38" s="10">
+        <v>81000</v>
+      </c>
+      <c r="N38" s="10">
+        <v>2000</v>
+      </c>
+      <c r="O38" s="10">
+        <v>13823000</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>9089000</v>
+      </c>
+      <c r="R38" s="10">
+        <v>9089000</v>
       </c>
       <c r="S38" s="11">
         <v>35345000</v>
@@ -4904,6 +5805,9 @@
       <c r="B39" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C39" s="20">
+        <v>42886</v>
+      </c>
       <c r="D39" s="9">
         <v>2015</v>
       </c>
@@ -4914,10 +5818,34 @@
         <v>15607000</v>
       </c>
       <c r="G39" s="10">
-        <v>9720000</v>
+        <v>2867000</v>
+      </c>
+      <c r="H39" s="10">
+        <v>12740000</v>
+      </c>
+      <c r="I39" s="10">
+        <v>3020000</v>
       </c>
       <c r="K39" s="10">
         <v>330000</v>
+      </c>
+      <c r="L39" s="10">
+        <v>9720000</v>
+      </c>
+      <c r="M39" s="10">
+        <v>-61000</v>
+      </c>
+      <c r="N39" s="10">
+        <v>-564000</v>
+      </c>
+      <c r="O39" s="10">
+        <v>12740000</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>8110000</v>
+      </c>
+      <c r="R39" s="10">
+        <v>8110000</v>
       </c>
       <c r="S39" s="11">
         <v>26524000</v>
@@ -4990,6 +5918,9 @@
       <c r="B40" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C40" s="20">
+        <v>42795</v>
+      </c>
       <c r="D40" s="9">
         <v>2015</v>
       </c>
@@ -5000,10 +5931,34 @@
         <v>13747000</v>
       </c>
       <c r="G40" s="10">
-        <v>9465000</v>
+        <v>2147000</v>
+      </c>
+      <c r="H40" s="10">
+        <v>11600000</v>
+      </c>
+      <c r="I40" s="10">
+        <v>2135000</v>
       </c>
       <c r="K40" s="10">
         <v>320000</v>
+      </c>
+      <c r="L40" s="10">
+        <v>9465000</v>
+      </c>
+      <c r="M40" s="10">
+        <v>135000</v>
+      </c>
+      <c r="N40" s="10">
+        <v>608000</v>
+      </c>
+      <c r="O40" s="10">
+        <v>11600000</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>7251000</v>
+      </c>
+      <c r="R40" s="10">
+        <v>7251000</v>
       </c>
       <c r="S40" s="11">
         <v>19780000</v>
@@ -5076,6 +6031,9 @@
       <c r="B41" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C41" s="20">
+        <v>42704</v>
+      </c>
       <c r="D41" s="9">
         <v>2015</v>
       </c>
@@ -5086,10 +6044,34 @@
         <v>12440000</v>
       </c>
       <c r="G41" s="10">
-        <v>8183000</v>
+        <v>1952000</v>
+      </c>
+      <c r="H41" s="10">
+        <v>10488000</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2305000</v>
       </c>
       <c r="K41" s="10">
         <v>283000</v>
+      </c>
+      <c r="L41" s="10">
+        <v>8183000</v>
+      </c>
+      <c r="M41" s="10">
+        <v>24000</v>
+      </c>
+      <c r="N41" s="10">
+        <v>-309000</v>
+      </c>
+      <c r="O41" s="10">
+        <v>10488000</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>6823000</v>
+      </c>
+      <c r="R41" s="10">
+        <v>6823000</v>
       </c>
       <c r="S41" s="11">
         <v>11898000</v>
@@ -5162,6 +6144,9 @@
       <c r="B42" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C42" s="20">
+        <v>42610</v>
+      </c>
       <c r="D42" s="9">
         <v>2015</v>
       </c>
@@ -5172,10 +6157,34 @@
         <v>11239000</v>
       </c>
       <c r="G42" s="10">
-        <v>7581000</v>
+        <v>1634000</v>
+      </c>
+      <c r="H42" s="10">
+        <v>9605000</v>
+      </c>
+      <c r="I42" s="10">
+        <v>2024000</v>
       </c>
       <c r="K42" s="10">
         <v>277000</v>
+      </c>
+      <c r="L42" s="10">
+        <v>7581000</v>
+      </c>
+      <c r="M42" s="10">
+        <v>68000</v>
+      </c>
+      <c r="N42" s="10">
+        <v>309000</v>
+      </c>
+      <c r="O42" s="10">
+        <v>9605000</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>5889000</v>
+      </c>
+      <c r="R42" s="10">
+        <v>5889000</v>
       </c>
       <c r="S42" s="11">
         <v>23295000</v>
@@ -5248,7 +6257,7 @@
       <c r="B43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="20">
         <v>45974</v>
       </c>
       <c r="D43" s="9">
@@ -5283,21 +6292,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BC6" xr:uid="{B011D845-C0A1-6144-B026-372543A373DB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BC6">
-      <sortCondition descending="1" ref="D1:D6"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:BC43" xr:uid="{B011D845-C0A1-6144-B026-372543A373DB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BC8E8B-D0DF-8741-8EB1-7F05546FE9ED}">
-  <dimension ref="B7:AP29"/>
+  <dimension ref="A7:AR41"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH39" sqref="AH39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="B27:AP29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5338,7 +6343,7 @@
       <c r="B14" s="16"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5381,7 +6386,7 @@
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -5424,7 +6429,7 @@
       <c r="AO21" s="9"/>
       <c r="AP21" s="9"/>
     </row>
-    <row r="22" spans="2:42" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5442,7 +6447,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>2015</v>
       </c>
@@ -5567,7 +6572,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="28" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
         <v>56</v>
       </c>
@@ -5692,132 +6697,766 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:42" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="20">
-        <v>0</v>
+    <row r="29" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="18">
+        <v>9605</v>
       </c>
       <c r="C29" s="18">
-        <v>-18283</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20">
-        <v>0</v>
-      </c>
-      <c r="F29" s="20">
-        <v>0</v>
+        <v>10488</v>
+      </c>
+      <c r="D29" s="18">
+        <v>11600</v>
+      </c>
+      <c r="E29" s="18">
+        <v>12740</v>
+      </c>
+      <c r="F29" s="18">
+        <v>13823</v>
       </c>
       <c r="G29" s="18">
-        <v>-27810</v>
-      </c>
-      <c r="H29" s="20">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20">
-        <v>0</v>
-      </c>
-      <c r="J29" s="20">
-        <v>0</v>
+        <v>14917</v>
+      </c>
+      <c r="H29" s="18">
+        <v>17748</v>
+      </c>
+      <c r="I29" s="18">
+        <v>18017</v>
+      </c>
+      <c r="J29" s="18">
+        <v>17028</v>
       </c>
       <c r="K29" s="18">
-        <v>-36308</v>
-      </c>
-      <c r="L29" s="20">
-        <v>0</v>
+        <v>19472</v>
+      </c>
+      <c r="L29" s="18">
+        <v>19093</v>
       </c>
       <c r="M29" s="18">
-        <v>-11330</v>
-      </c>
-      <c r="N29" s="20">
-        <v>0</v>
+        <v>19483</v>
+      </c>
+      <c r="N29" s="18">
+        <v>21508</v>
       </c>
       <c r="O29" s="18">
-        <v>-34248</v>
-      </c>
-      <c r="P29" s="20">
-        <v>0</v>
+        <v>22162</v>
+      </c>
+      <c r="P29" s="18">
+        <v>22829</v>
       </c>
       <c r="Q29" s="18">
-        <v>-13905</v>
-      </c>
-      <c r="R29" s="20">
-        <v>0</v>
+        <v>24861</v>
+      </c>
+      <c r="R29" s="18">
+        <v>25449</v>
       </c>
       <c r="S29" s="18">
-        <v>-36311</v>
-      </c>
-      <c r="T29" s="20">
-        <v>3</v>
+        <v>28094</v>
+      </c>
+      <c r="T29" s="18">
+        <v>27341</v>
       </c>
       <c r="U29" s="18">
-        <v>-15984</v>
-      </c>
-      <c r="V29" s="20">
-        <v>-209</v>
+        <v>32523</v>
+      </c>
+      <c r="V29" s="18">
+        <v>36025</v>
       </c>
       <c r="W29" s="18">
-        <v>-48617</v>
-      </c>
-      <c r="X29" s="20">
-        <v>-206</v>
+        <v>34130</v>
+      </c>
+      <c r="X29" s="18">
+        <v>39155</v>
       </c>
       <c r="Y29" s="18">
-        <v>-23122</v>
-      </c>
-      <c r="Z29" s="20">
-        <v>-202</v>
+        <v>41793</v>
+      </c>
+      <c r="Z29" s="18">
+        <v>41003</v>
       </c>
       <c r="AA29" s="18">
-        <v>-72301</v>
-      </c>
-      <c r="AB29" s="20">
-        <v>-200</v>
-      </c>
-      <c r="AC29" s="21">
-        <v>140607</v>
-      </c>
-      <c r="AD29" s="21">
-        <v>178621</v>
-      </c>
-      <c r="AE29" s="21">
-        <v>137800</v>
-      </c>
-      <c r="AF29" s="21">
-        <v>186328</v>
-      </c>
-      <c r="AG29" s="21">
-        <v>201350</v>
-      </c>
-      <c r="AH29" s="21">
-        <v>242487</v>
-      </c>
-      <c r="AI29" s="21">
-        <v>168311</v>
-      </c>
-      <c r="AJ29" s="21">
-        <v>209636</v>
-      </c>
-      <c r="AK29" s="21">
-        <v>210139</v>
-      </c>
-      <c r="AL29" s="21">
-        <v>258714</v>
-      </c>
-      <c r="AM29" s="21">
-        <v>187355</v>
-      </c>
-      <c r="AN29" s="21">
-        <v>227513</v>
-      </c>
-      <c r="AO29" s="21">
-        <v>226705</v>
-      </c>
-      <c r="AP29" s="21">
-        <v>256366</v>
-      </c>
+        <v>50471</v>
+      </c>
+      <c r="AB29" s="18">
+        <v>47482</v>
+      </c>
+      <c r="AC29" s="18">
+        <v>51431</v>
+      </c>
+      <c r="AD29" s="17">
+        <v>56764</v>
+      </c>
+      <c r="AE29" s="17">
+        <v>65076</v>
+      </c>
+      <c r="AF29" s="17">
+        <v>73370</v>
+      </c>
+      <c r="AG29" s="17">
+        <v>74165</v>
+      </c>
+      <c r="AH29" s="17">
+        <v>68311</v>
+      </c>
+      <c r="AI29" s="17">
+        <v>65587</v>
+      </c>
+      <c r="AJ29" s="17">
+        <v>70880</v>
+      </c>
+      <c r="AK29" s="17">
+        <v>66965</v>
+      </c>
+      <c r="AL29" s="17">
+        <v>70939</v>
+      </c>
+      <c r="AM29" s="17">
+        <v>70924</v>
+      </c>
+      <c r="AN29" s="17">
+        <v>71047</v>
+      </c>
+      <c r="AO29" s="17">
+        <v>69398</v>
+      </c>
+      <c r="AP29" s="17">
+        <v>58444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16">
+        <v>1110</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1146</v>
+      </c>
+      <c r="D32" s="16">
+        <v>1492</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1908</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1745</v>
+      </c>
+      <c r="G32" s="16">
+        <v>1540</v>
+      </c>
+      <c r="H32" s="16">
+        <v>1752</v>
+      </c>
+      <c r="I32" s="16">
+        <v>1822</v>
+      </c>
+      <c r="J32" s="16">
+        <v>1879</v>
+      </c>
+      <c r="K32" s="16">
+        <v>1677</v>
+      </c>
+      <c r="L32" s="16">
+        <v>1661</v>
+      </c>
+      <c r="M32" s="16">
+        <v>1976</v>
+      </c>
+      <c r="N32" s="16">
+        <v>1945</v>
+      </c>
+      <c r="O32" s="16">
+        <v>2406</v>
+      </c>
+      <c r="P32" s="16">
+        <v>2505</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>3609</v>
+      </c>
+      <c r="R32" s="16">
+        <v>3904</v>
+      </c>
+      <c r="S32" s="16">
+        <v>4573</v>
+      </c>
+      <c r="T32" s="16">
+        <v>4524</v>
+      </c>
+      <c r="U32" s="16">
+        <v>6803</v>
+      </c>
+      <c r="V32" s="16">
+        <v>7768</v>
+      </c>
+      <c r="W32" s="16">
+        <v>7194</v>
+      </c>
+      <c r="X32" s="16">
+        <v>8224</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>8431</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>9464</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>10014</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>11194</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>13484</v>
+      </c>
+      <c r="AD32" s="16">
+        <v>13710</v>
+      </c>
+      <c r="AE32" s="16">
+        <v>16196</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>16037</v>
+      </c>
+      <c r="AG32" s="16">
+        <v>14532</v>
+      </c>
+      <c r="AH32" s="16">
+        <v>14497</v>
+      </c>
+      <c r="AI32" s="16">
+        <v>16145</v>
+      </c>
+      <c r="AJ32" s="16">
+        <v>15139</v>
+      </c>
+      <c r="AK32" s="16">
+        <v>16949</v>
+      </c>
+      <c r="AL32" s="16">
+        <v>16351</v>
+      </c>
+      <c r="AM32" s="16">
+        <v>15939</v>
+      </c>
+      <c r="AN32" s="16">
+        <v>16585</v>
+      </c>
+      <c r="AO32" s="16">
+        <v>15924</v>
+      </c>
+      <c r="AP32" s="16">
+        <v>16383</v>
+      </c>
+      <c r="AQ32" s="21"/>
+    </row>
+    <row r="33" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17">
+        <v>914</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1161</v>
+      </c>
+      <c r="D33" s="17">
+        <v>643</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1121</v>
+      </c>
+      <c r="F33" s="17">
+        <v>840</v>
+      </c>
+      <c r="G33" s="16">
+        <v>1215</v>
+      </c>
+      <c r="H33" s="16">
+        <v>1030</v>
+      </c>
+      <c r="I33" s="16">
+        <v>1230</v>
+      </c>
+      <c r="J33" s="16">
+        <v>1409</v>
+      </c>
+      <c r="K33" s="16">
+        <v>1562</v>
+      </c>
+      <c r="L33" s="16">
+        <v>2029</v>
+      </c>
+      <c r="M33" s="16">
+        <v>1533</v>
+      </c>
+      <c r="N33" s="16">
+        <v>1949</v>
+      </c>
+      <c r="O33" s="16">
+        <v>2329</v>
+      </c>
+      <c r="P33" s="16">
+        <v>3350</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>2485</v>
+      </c>
+      <c r="R33" s="16">
+        <v>3347</v>
+      </c>
+      <c r="S33" s="16">
+        <v>3151</v>
+      </c>
+      <c r="T33" s="16">
+        <v>3109</v>
+      </c>
+      <c r="U33" s="16">
+        <v>2025</v>
+      </c>
+      <c r="V33" s="16">
+        <v>2412</v>
+      </c>
+      <c r="W33" s="16">
+        <v>3036</v>
+      </c>
+      <c r="X33" s="16">
+        <v>3030</v>
+      </c>
+      <c r="Y33" s="16">
+        <v>3809</v>
+      </c>
+      <c r="Z33" s="16">
+        <v>3516</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>4683</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>4353</v>
+      </c>
+      <c r="AC33" s="16">
+        <v>4623</v>
+      </c>
+      <c r="AD33" s="16">
+        <v>4358</v>
+      </c>
+      <c r="AE33" s="16">
+        <v>6339</v>
+      </c>
+      <c r="AF33" s="16">
+        <v>6404</v>
+      </c>
+      <c r="AG33" s="16">
+        <v>6395</v>
+      </c>
+      <c r="AH33" s="16">
+        <v>5484</v>
+      </c>
+      <c r="AI33" s="16">
+        <v>7276</v>
+      </c>
+      <c r="AJ33" s="16">
+        <v>8254</v>
+      </c>
+      <c r="AK33" s="16">
+        <v>9141</v>
+      </c>
+      <c r="AL33" s="16">
+        <v>7605</v>
+      </c>
+      <c r="AM33" s="16">
+        <v>8971</v>
+      </c>
+      <c r="AN33" s="16">
+        <v>10948</v>
+      </c>
+      <c r="AO33" s="16">
+        <v>12683</v>
+      </c>
+      <c r="AP33" s="16">
+        <v>6247</v>
+      </c>
+      <c r="AR33" s="21"/>
+    </row>
+    <row r="34" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18">
+        <v>7581</v>
+      </c>
+      <c r="C34" s="18">
+        <v>8181</v>
+      </c>
+      <c r="D34" s="18">
+        <v>9465</v>
+      </c>
+      <c r="E34" s="18">
+        <v>9711</v>
+      </c>
+      <c r="F34" s="18">
+        <v>11238</v>
+      </c>
+      <c r="G34" s="18">
+        <v>12162</v>
+      </c>
+      <c r="H34" s="18">
+        <v>14966</v>
+      </c>
+      <c r="I34" s="18">
+        <v>14965</v>
+      </c>
+      <c r="J34" s="18">
+        <v>13740</v>
+      </c>
+      <c r="K34" s="18">
+        <v>16233</v>
+      </c>
+      <c r="L34" s="18">
+        <v>15403</v>
+      </c>
+      <c r="M34" s="18">
+        <v>15974</v>
+      </c>
+      <c r="N34" s="18">
+        <v>17614</v>
+      </c>
+      <c r="O34" s="18">
+        <v>17427</v>
+      </c>
+      <c r="P34" s="18">
+        <v>16974</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>18767</v>
+      </c>
+      <c r="R34" s="18">
+        <v>18198</v>
+      </c>
+      <c r="S34" s="18">
+        <v>20370</v>
+      </c>
+      <c r="T34" s="18">
+        <v>19708</v>
+      </c>
+      <c r="U34" s="18">
+        <v>23695</v>
+      </c>
+      <c r="V34" s="18">
+        <v>25845</v>
+      </c>
+      <c r="W34" s="18">
+        <v>23900</v>
+      </c>
+      <c r="X34" s="18">
+        <v>27901</v>
+      </c>
+      <c r="Y34" s="18">
+        <v>29553</v>
+      </c>
+      <c r="Z34" s="18">
+        <v>28023</v>
+      </c>
+      <c r="AA34" s="18">
+        <v>35774</v>
+      </c>
+      <c r="AB34" s="18">
+        <v>31935</v>
+      </c>
+      <c r="AC34" s="18">
+        <v>33324</v>
+      </c>
+      <c r="AD34" s="18">
+        <v>38696</v>
+      </c>
+      <c r="AE34" s="18">
+        <v>42541</v>
+      </c>
+      <c r="AF34" s="18">
+        <v>50929</v>
+      </c>
+      <c r="AG34" s="18">
+        <v>53238</v>
+      </c>
+      <c r="AH34" s="18">
+        <v>48330</v>
+      </c>
+      <c r="AI34" s="18">
+        <v>42166</v>
+      </c>
+      <c r="AJ34" s="18">
+        <v>47487</v>
+      </c>
+      <c r="AK34" s="18">
+        <v>40875</v>
+      </c>
+      <c r="AL34" s="18">
+        <v>46983</v>
+      </c>
+      <c r="AM34" s="18">
+        <v>46014</v>
+      </c>
+      <c r="AN34" s="18">
+        <v>43514</v>
+      </c>
+      <c r="AO34" s="18">
+        <v>40791</v>
+      </c>
+      <c r="AP34" s="18">
+        <v>35814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B35" s="15">
+        <f t="shared" ref="B35" si="0">SUM(B32:B34)</f>
+        <v>9605</v>
+      </c>
+      <c r="C35" s="15">
+        <f t="shared" ref="C35" si="1">SUM(C32:C34)</f>
+        <v>10488</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" ref="D35" si="2">SUM(D32:D34)</f>
+        <v>11600</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" ref="E35" si="3">SUM(E32:E34)</f>
+        <v>12740</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" ref="F35" si="4">SUM(F32:F34)</f>
+        <v>13823</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" ref="G35" si="5">SUM(G32:G34)</f>
+        <v>14917</v>
+      </c>
+      <c r="H35" s="15">
+        <f t="shared" ref="H35" si="6">SUM(H32:H34)</f>
+        <v>17748</v>
+      </c>
+      <c r="I35" s="15">
+        <f t="shared" ref="I35" si="7">SUM(I32:I34)</f>
+        <v>18017</v>
+      </c>
+      <c r="J35" s="15">
+        <f t="shared" ref="J35" si="8">SUM(J32:J34)</f>
+        <v>17028</v>
+      </c>
+      <c r="K35" s="15">
+        <f t="shared" ref="K35" si="9">SUM(K32:K34)</f>
+        <v>19472</v>
+      </c>
+      <c r="L35" s="15">
+        <f t="shared" ref="L35" si="10">SUM(L32:L34)</f>
+        <v>19093</v>
+      </c>
+      <c r="M35" s="15">
+        <f t="shared" ref="M35" si="11">SUM(M32:M34)</f>
+        <v>19483</v>
+      </c>
+      <c r="N35" s="15">
+        <f t="shared" ref="N35" si="12">SUM(N32:N34)</f>
+        <v>21508</v>
+      </c>
+      <c r="O35" s="15">
+        <f t="shared" ref="O35" si="13">SUM(O32:O34)</f>
+        <v>22162</v>
+      </c>
+      <c r="P35" s="15">
+        <f t="shared" ref="P35" si="14">SUM(P32:P34)</f>
+        <v>22829</v>
+      </c>
+      <c r="Q35" s="15">
+        <f t="shared" ref="Q35" si="15">SUM(Q32:Q34)</f>
+        <v>24861</v>
+      </c>
+      <c r="R35" s="15">
+        <f t="shared" ref="R35" si="16">SUM(R32:R34)</f>
+        <v>25449</v>
+      </c>
+      <c r="S35" s="15">
+        <f t="shared" ref="S35" si="17">SUM(S32:S34)</f>
+        <v>28094</v>
+      </c>
+      <c r="T35" s="15">
+        <f t="shared" ref="T35" si="18">SUM(T32:T34)</f>
+        <v>27341</v>
+      </c>
+      <c r="U35" s="15">
+        <f t="shared" ref="U35" si="19">SUM(U32:U34)</f>
+        <v>32523</v>
+      </c>
+      <c r="V35" s="15">
+        <f t="shared" ref="V35" si="20">SUM(V32:V34)</f>
+        <v>36025</v>
+      </c>
+      <c r="W35" s="15">
+        <f t="shared" ref="W35" si="21">SUM(W32:W34)</f>
+        <v>34130</v>
+      </c>
+      <c r="X35" s="15">
+        <f t="shared" ref="X35" si="22">SUM(X32:X34)</f>
+        <v>39155</v>
+      </c>
+      <c r="Y35" s="15">
+        <f t="shared" ref="Y35" si="23">SUM(Y32:Y34)</f>
+        <v>41793</v>
+      </c>
+      <c r="Z35" s="15">
+        <f t="shared" ref="Z35:AO35" si="24">SUM(Z32:Z34)</f>
+        <v>41003</v>
+      </c>
+      <c r="AA35" s="15">
+        <f t="shared" si="24"/>
+        <v>50471</v>
+      </c>
+      <c r="AB35" s="15">
+        <f t="shared" si="24"/>
+        <v>47482</v>
+      </c>
+      <c r="AC35" s="15">
+        <f t="shared" si="24"/>
+        <v>51431</v>
+      </c>
+      <c r="AD35" s="15">
+        <f t="shared" si="24"/>
+        <v>56764</v>
+      </c>
+      <c r="AE35" s="15">
+        <f t="shared" si="24"/>
+        <v>65076</v>
+      </c>
+      <c r="AF35" s="15">
+        <f t="shared" si="24"/>
+        <v>73370</v>
+      </c>
+      <c r="AG35" s="15">
+        <f t="shared" si="24"/>
+        <v>74165</v>
+      </c>
+      <c r="AH35" s="15">
+        <f t="shared" si="24"/>
+        <v>68311</v>
+      </c>
+      <c r="AI35" s="15">
+        <f t="shared" si="24"/>
+        <v>65587</v>
+      </c>
+      <c r="AJ35" s="15">
+        <f t="shared" si="24"/>
+        <v>70880</v>
+      </c>
+      <c r="AK35" s="15">
+        <f t="shared" si="24"/>
+        <v>66965</v>
+      </c>
+      <c r="AL35" s="15">
+        <f t="shared" si="24"/>
+        <v>70939</v>
+      </c>
+      <c r="AM35" s="15">
+        <f t="shared" si="24"/>
+        <v>70924</v>
+      </c>
+      <c r="AN35" s="15">
+        <f t="shared" si="24"/>
+        <v>71047</v>
+      </c>
+      <c r="AO35" s="15">
+        <f t="shared" si="24"/>
+        <v>69398</v>
+      </c>
+      <c r="AP35" s="15">
+        <f>SUM(AP32:AP34)</f>
+        <v>58444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="21"/>
+    </row>
+    <row r="37" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="K37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="21"/>
+    </row>
+    <row r="38" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="K38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="21"/>
+    </row>
+    <row r="39" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="G39" s="17"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="21"/>
+    </row>
+    <row r="40" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="21"/>
+    </row>
+    <row r="41" spans="1:44" ht="17" x14ac:dyDescent="0.2">
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="Q41" s="18"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AQ32" r:id="rId1" display="javascript:void(0)" xr:uid="{BD93F4FE-5EF0-DD45-8E52-D31821941774}"/>
+    <hyperlink ref="AR33" r:id="rId2" display="javascript:void(0)" xr:uid="{126CA09E-9FAF-9A47-A1D5-995D86D0E291}"/>
+    <hyperlink ref="AB36" r:id="rId3" display="javascript:void(0)" xr:uid="{4594C192-42FD-FD44-BF67-433FC2EE18DD}"/>
+    <hyperlink ref="Y40" r:id="rId4" display="javascript:void(0)" xr:uid="{C40B3CAA-0B65-694A-B856-1F21BFE78B91}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5827,7 +7466,7 @@
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5835,7 +7474,7 @@
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G2" t="s">
         <v>60</v>
       </c>
@@ -5846,7 +7485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="9">
         <v>2015</v>
       </c>
@@ -5859,15 +7498,15 @@
       <c r="H3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="21">
-        <v>256366</v>
+      <c r="I3" s="17">
+        <v>58444</v>
       </c>
       <c r="J3" s="15">
         <f>I3*1000</f>
-        <v>256366000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>58444000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>2015</v>
       </c>
@@ -5880,15 +7519,15 @@
       <c r="H4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="21">
-        <v>226705</v>
+      <c r="I4" s="17">
+        <v>69398</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" ref="J4:J43" si="0">I4*1000</f>
-        <v>226705000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>69398000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2015</v>
       </c>
@@ -5901,15 +7540,15 @@
       <c r="H5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="21">
-        <v>227513</v>
+      <c r="I5" s="17">
+        <v>71047</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="0"/>
-        <v>227513000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>71047000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>2015</v>
       </c>
@@ -5922,15 +7561,15 @@
       <c r="H6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="21">
-        <v>187355</v>
+      <c r="I6" s="17">
+        <v>70924</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="0"/>
-        <v>187355000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>70924000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>2016</v>
       </c>
@@ -5943,15 +7582,15 @@
       <c r="H7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="21">
-        <v>258714</v>
+      <c r="I7" s="17">
+        <v>70939</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>258714000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>70939000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>2016</v>
       </c>
@@ -5964,15 +7603,15 @@
       <c r="H8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="21">
-        <v>210139</v>
+      <c r="I8" s="17">
+        <v>66965</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="0"/>
-        <v>210139000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>66965000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>2016</v>
       </c>
@@ -5985,15 +7624,15 @@
       <c r="H9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="21">
-        <v>209636</v>
+      <c r="I9" s="17">
+        <v>70880</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="0"/>
-        <v>209636000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>70880000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>2016</v>
       </c>
@@ -6006,15 +7645,15 @@
       <c r="H10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="21">
-        <v>168311</v>
+      <c r="I10" s="17">
+        <v>65587</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="0"/>
-        <v>168311000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>65587000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>2017</v>
       </c>
@@ -6027,15 +7666,15 @@
       <c r="H11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="21">
-        <v>242487</v>
+      <c r="I11" s="17">
+        <v>68311</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="0"/>
-        <v>242487000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>68311000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>2017</v>
       </c>
@@ -6048,15 +7687,15 @@
       <c r="H12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="21">
-        <v>201350</v>
+      <c r="I12" s="17">
+        <v>74165</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="0"/>
-        <v>201350000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>74165000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>2017</v>
       </c>
@@ -6069,15 +7708,15 @@
       <c r="H13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="21">
-        <v>186328</v>
+      <c r="I13" s="17">
+        <v>73370</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="0"/>
-        <v>186328000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>73370000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>2017</v>
       </c>
@@ -6090,15 +7729,15 @@
       <c r="H14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="21">
-        <v>137800</v>
+      <c r="I14" s="17">
+        <v>65076</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="0"/>
-        <v>137800000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>65076000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="9">
         <v>2018</v>
       </c>
@@ -6111,15 +7750,15 @@
       <c r="H15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="21">
-        <v>178621</v>
+      <c r="I15" s="17">
+        <v>56764</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="0"/>
-        <v>178621000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>56764000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>2018</v>
       </c>
@@ -6132,12 +7771,12 @@
       <c r="H16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="21">
-        <v>140607</v>
+      <c r="I16" s="18">
+        <v>51431</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="0"/>
-        <v>140607000</v>
+        <v>51431000</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6153,10 +7792,12 @@
       <c r="H17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="18">
+        <v>47482</v>
+      </c>
       <c r="J17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47482000</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6172,10 +7813,12 @@
       <c r="H18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="18"/>
+      <c r="I18" s="18">
+        <v>50471</v>
+      </c>
       <c r="J18" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50471000</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6191,10 +7834,12 @@
       <c r="H19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="18">
+        <v>41003</v>
+      </c>
       <c r="J19" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41003000</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6210,10 +7855,12 @@
       <c r="H20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="18">
+        <v>41793</v>
+      </c>
       <c r="J20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41793000</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6229,10 +7876,12 @@
       <c r="H21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="18">
+        <v>39155</v>
+      </c>
       <c r="J21" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39155000</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6248,10 +7897,12 @@
       <c r="H22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="18">
+        <v>34130</v>
+      </c>
       <c r="J22" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34130000</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6267,10 +7918,12 @@
       <c r="H23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="18">
+        <v>36025</v>
+      </c>
       <c r="J23" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36025000</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6286,10 +7939,12 @@
       <c r="H24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="18">
+        <v>32523</v>
+      </c>
       <c r="J24" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32523000</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6305,10 +7960,12 @@
       <c r="H25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="18">
+        <v>27341</v>
+      </c>
       <c r="J25" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27341000</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6324,10 +7981,12 @@
       <c r="H26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="18">
+        <v>28094</v>
+      </c>
       <c r="J26" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28094000</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6343,10 +8002,12 @@
       <c r="H27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="18">
+        <v>25449</v>
+      </c>
       <c r="J27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25449000</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6362,10 +8023,12 @@
       <c r="H28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="18">
+        <v>24861</v>
+      </c>
       <c r="J28" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24861000</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6381,10 +8044,12 @@
       <c r="H29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="18">
+        <v>22829</v>
+      </c>
       <c r="J29" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22829000</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6400,10 +8065,12 @@
       <c r="H30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="18">
+        <v>22162</v>
+      </c>
       <c r="J30" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22162000</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6419,10 +8086,12 @@
       <c r="H31" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="18">
+        <v>21508</v>
+      </c>
       <c r="J31" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21508000</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6438,10 +8107,12 @@
       <c r="H32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="18">
+        <v>19483</v>
+      </c>
       <c r="J32" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19483000</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6457,10 +8128,12 @@
       <c r="H33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="18">
+        <v>19093</v>
+      </c>
       <c r="J33" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19093000</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6476,10 +8149,12 @@
       <c r="H34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="18"/>
+      <c r="I34" s="18">
+        <v>19472</v>
+      </c>
       <c r="J34" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19472000</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6495,10 +8170,12 @@
       <c r="H35" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="20"/>
+      <c r="I35" s="18">
+        <v>17028</v>
+      </c>
       <c r="J35" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17028000</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6514,10 +8191,12 @@
       <c r="H36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="18">
+        <v>18017</v>
+      </c>
       <c r="J36" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18017000</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6533,10 +8212,12 @@
       <c r="H37" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="18">
+        <v>17748</v>
+      </c>
       <c r="J37" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17748000</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6552,10 +8233,12 @@
       <c r="H38" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I38" s="18"/>
+      <c r="I38" s="18">
+        <v>14917</v>
+      </c>
       <c r="J38" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14917000</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6571,10 +8254,12 @@
       <c r="H39" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="20"/>
+      <c r="I39" s="18">
+        <v>13823</v>
+      </c>
       <c r="J39" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13823000</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6590,10 +8275,12 @@
       <c r="H40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="20"/>
+      <c r="I40" s="18">
+        <v>12740</v>
+      </c>
       <c r="J40" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12740000</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6609,10 +8296,12 @@
       <c r="H41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I41" s="20"/>
+      <c r="I41" s="18">
+        <v>11600</v>
+      </c>
       <c r="J41" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11600000</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6628,10 +8317,12 @@
       <c r="H42" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="18"/>
+      <c r="I42" s="18">
+        <v>10488</v>
+      </c>
       <c r="J42" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10488000</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="17" x14ac:dyDescent="0.2">
@@ -6647,10 +8338,12 @@
       <c r="H43" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="20"/>
+      <c r="I43" s="18">
+        <v>9605</v>
+      </c>
       <c r="J43" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9605000</v>
       </c>
     </row>
   </sheetData>
